--- a/biology/Biologie cellulaire et moléculaire/IRF5/IRF5.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/IRF5/IRF5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'IRF (pour « Interferon regulatory factor 5 ») est une protéine de la famille des facteurs de régulation de l'interféron, avec un rôle de facteur de transcription. Son gène est IRF5 situé sur le Chromosome 7 humain.
 </t>
@@ -511,12 +523,14 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">il augmente l'expression des sous-unités es interleukines 12 et 23 et diminue celle de l'interleukine 10[5].
-Il favorise la résistance à l'insuline et modifie la répartition des graisses[6].
-Son inhibition pourrait améliorer la cicatrisation cardiaque après un infarctus du myocarde[7].
-Dans l'athérome, il aurait un rôle pro-inflammatoire et inhiberait l'efférocytose[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">il augmente l'expression des sous-unités es interleukines 12 et 23 et diminue celle de l'interleukine 10.
+Il favorise la résistance à l'insuline et modifie la répartition des graisses.
+Son inhibition pourrait améliorer la cicatrisation cardiaque après un infarctus du myocarde.
+Dans l'athérome, il aurait un rôle pro-inflammatoire et inhiberait l'efférocytose.
 </t>
         </is>
       </c>
